--- a/Mifos Automation Excels/Client/2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-REPAY-AccCL1stFEB-REPAY1stMAR-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-REPAY-AccCL1stFEB-REPAY1stMAR-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Repay2" sheetId="9" r:id="rId4"/>
     <sheet name="RunPeriodicAccrual" sheetId="10" r:id="rId5"/>
     <sheet name="DeleteAccountClosures" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Head Office</t>
   </si>
@@ -130,12 +131,6 @@
   </si>
   <si>
     <t>EnterAccrualDate</t>
-  </si>
-  <si>
-    <t>accrualverify</t>
-  </si>
-  <si>
-    <t>validation.msg.periodicaccrual.execution.failed</t>
   </si>
   <si>
     <t>clickOnAccountEntry</t>
@@ -530,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -553,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +724,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,10 +807,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,14 +832,6 @@
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +855,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>14</v>
@@ -876,7 +863,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -884,7 +871,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
@@ -893,4 +880,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>